--- a/Jonas_Javascript/Book1.xlsx
+++ b/Jonas_Javascript/Book1.xlsx
@@ -2,18 +2,19 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JavaScript-Prac\Jonas_Javascript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2445B64-74CE-4730-91C8-3512F2B04699}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48DE45C3-4E2C-486F-89BC-BD38A9254A5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{990662BE-EF85-432D-9A1B-4846B081BA8A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="300" activeTab="1" xr2:uid="{990662BE-EF85-432D-9A1B-4846B081BA8A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="60">
   <si>
     <t>Javscript Exercises</t>
   </si>
@@ -103,6 +104,117 @@
   </si>
   <si>
     <t>Exercises/Day</t>
+  </si>
+  <si>
+    <t>Javscript Modules</t>
+  </si>
+  <si>
+    <t>Data Structures, Modern Operators and Strings</t>
+  </si>
+  <si>
+    <t>Hours</t>
+  </si>
+  <si>
+    <t>A Closer Look at Functions</t>
+  </si>
+  <si>
+    <t>Dates</t>
+  </si>
+  <si>
+    <t>August - 19/20/21/22</t>
+  </si>
+  <si>
+    <t>August - 23/24</t>
+  </si>
+  <si>
+    <t>Working with Array</t>
+  </si>
+  <si>
+    <t>Numbers, Dates, Intl and Timers</t>
+  </si>
+  <si>
+    <t>5 Hours</t>
+  </si>
+  <si>
+    <t>Advanced DOM and Events</t>
+  </si>
+  <si>
+    <t>5.5 Hours</t>
+  </si>
+  <si>
+    <t>2.7 Hours</t>
+  </si>
+  <si>
+    <t>3.3 Hours</t>
+  </si>
+  <si>
+    <t>6.2 Hours</t>
+  </si>
+  <si>
+    <t>OOP</t>
+  </si>
+  <si>
+    <t>Mapty App</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Async Javascript </t>
+  </si>
+  <si>
+    <t>Modules, Tooling and functional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forkify app </t>
+  </si>
+  <si>
+    <t>Git and Deployement</t>
+  </si>
+  <si>
+    <t>4.1 Hours</t>
+  </si>
+  <si>
+    <t>4 Hours</t>
+  </si>
+  <si>
+    <t>8.5 Hours</t>
+  </si>
+  <si>
+    <t>1 Hours</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Infidigit </t>
+  </si>
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>https://www.infidigit.com/careers/frontend-react-trainee/</t>
+  </si>
+  <si>
+    <t>Links</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andheri </t>
+  </si>
+  <si>
+    <t>Zaminwale</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Not Applied</t>
+  </si>
+  <si>
+    <t>Applied</t>
+  </si>
+  <si>
+    <t>https://www.qtechsoftware.com/careers/</t>
+  </si>
+  <si>
+    <t>Qtech</t>
   </si>
 </sst>
 </file>
@@ -110,13 +222,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="0.0;[Red]0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0;[Red]0.0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Gill Sans MT"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -124,29 +236,51 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="Gill Sans MT"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="14"/>
       <color theme="1"/>
-      <name val="Montserrat"/>
+      <name val="Segoe UI Semibold"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Segoe UI Semibold"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
-      <sz val="11"/>
+      <sz val="14"/>
       <color theme="10"/>
-      <name val="Montserrat"/>
+      <name val="Segoe UI Semibold"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="20"/>
       <color theme="1"/>
-      <name val="Montserrat"/>
+      <name val="Source Sans Pro"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Source Sans Pro"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="16"/>
+      <color theme="10"/>
+      <name val="Source Sans Pro"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -155,12 +289,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCB2F33"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -184,21 +348,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -241,6 +390,191 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -251,23 +585,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -277,23 +598,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -303,35 +617,105 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -339,34 +723,13 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFCB2F33"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -379,9 +742,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Gallery">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Gallery">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -389,39 +752,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="454545"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="DFDBD5"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="B71E42"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="DE478E"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="BC72F0"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="795FAF"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="586EA6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="6892A0"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="FA2B5C"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="BC658E"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Gallery">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Gill Sans MT" panose="020B0502020104020203"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -430,7 +793,7 @@
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Thai" typeface="Angsana New"/>
         <a:font script="Ethi" typeface="Nyala"/>
         <a:font script="Beng" typeface="Vrinda"/>
         <a:font script="Gujr" typeface="Shruti"/>
@@ -454,26 +817,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Gill Sans MT" panose="020B0502020104020203"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -482,7 +828,7 @@
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Thai" typeface="Cordia New"/>
         <a:font script="Ethi" typeface="Nyala"/>
         <a:font script="Beng" typeface="Vrinda"/>
         <a:font script="Gujr" typeface="Shruti"/>
@@ -506,26 +852,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Gallery">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -534,23 +863,18 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
+                <a:tint val="54000"/>
+                <a:alpha val="100000"/>
+                <a:satMod val="105000"/>
                 <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
+                <a:tint val="78000"/>
+                <a:alpha val="92000"/>
                 <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:lumMod val="100000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -560,23 +884,23 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="104000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="69000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="88000"/>
+                <a:satMod val="130000"/>
+                <a:lumMod val="92000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
                 <a:shade val="78000"/>
+                <a:satMod val="130000"/>
+                <a:lumMod val="92000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -584,26 +908,23 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="22225" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
@@ -615,12 +936,23 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="50800" dist="50800" dir="5400000" sx="96000" sy="96000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="48000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="balanced" dir="t">
+              <a:rot lat="0" lon="0" rev="1080000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="38100" h="12700" prst="softRound"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
@@ -628,37 +960,26 @@
           <a:schemeClr val="phClr"/>
         </a:solidFill>
         <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
+          <a:schemeClr val="phClr"/>
         </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="94000"/>
+                <a:satMod val="80000"/>
+                <a:lumMod val="106000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="80000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="43000" r="43000" b="100000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -667,7 +988,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Gallery" id="{BBFCD31E-59A1-489D-B089-A3EAD7CAE12E}" vid="{F5E91637-A7B6-4E27-B710-77DA7014EE1E}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -675,457 +996,650 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B52ABB2D-A00C-423D-8554-076A21B7D477}">
-  <dimension ref="E3:K31"/>
+  <dimension ref="C4:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="7" max="7" width="54.5703125" customWidth="1"/>
-    <col min="8" max="8" width="30.85546875" customWidth="1"/>
-    <col min="9" max="9" width="19" customWidth="1"/>
+    <col min="1" max="1" width="0.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="55.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="1"/>
+    <col min="7" max="7" width="57.25" style="1" customWidth="1"/>
+    <col min="8" max="8" width="22.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="41.375" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-    </row>
-    <row r="4" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-    </row>
-    <row r="5" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="7" t="s">
+    <row r="4" spans="3:9" ht="21" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="5" spans="3:9" ht="21" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C5" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="H5" s="8"/>
-      <c r="I5" s="9" t="s">
+      <c r="D5" s="28"/>
+      <c r="E5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-    </row>
-    <row r="6" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="2" t="s">
+      <c r="F5" s="3"/>
+      <c r="G5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C6" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="H6" s="4">
+      <c r="D6" s="8">
         <v>150</v>
       </c>
-      <c r="I6" s="10">
-        <f>H6/30</f>
+      <c r="E6" s="9">
+        <f>D6/30</f>
         <v>5</v>
       </c>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-    </row>
-    <row r="7" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="2" t="s">
+      <c r="F6" s="10"/>
+      <c r="G6" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" s="21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C7" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="4">
+      <c r="D7" s="8">
         <v>150</v>
       </c>
-      <c r="I7" s="11">
-        <f t="shared" ref="I7:I26" si="0">H7/30</f>
+      <c r="E7" s="12">
+        <f t="shared" ref="E7:E26" si="0">D7/30</f>
         <v>5</v>
       </c>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-    </row>
-    <row r="8" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="2" t="s">
+      <c r="F7" s="10"/>
+      <c r="G7" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" s="22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C8" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H8" s="5">
+      <c r="D8" s="14">
         <v>116</v>
       </c>
-      <c r="I8" s="11">
+      <c r="E8" s="12">
         <f t="shared" si="0"/>
         <v>3.8666666666666667</v>
       </c>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-    </row>
-    <row r="9" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="2" t="s">
+      <c r="F8" s="10"/>
+      <c r="G8" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="I8" s="22"/>
+    </row>
+    <row r="9" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C9" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H9" s="5">
+      <c r="D9" s="14">
         <v>13</v>
       </c>
-      <c r="I9" s="11">
+      <c r="E9" s="12">
         <f t="shared" si="0"/>
         <v>0.43333333333333335</v>
       </c>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-    </row>
-    <row r="10" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="2" t="s">
+      <c r="F9" s="10"/>
+      <c r="G9" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="I9" s="22"/>
+    </row>
+    <row r="10" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C10" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H10" s="5">
+      <c r="D10" s="14">
         <v>29</v>
       </c>
-      <c r="I10" s="11">
+      <c r="E10" s="12">
         <f t="shared" si="0"/>
         <v>0.96666666666666667</v>
       </c>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-    </row>
-    <row r="11" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="2" t="s">
+      <c r="F10" s="10"/>
+      <c r="G10" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="I10" s="22"/>
+    </row>
+    <row r="11" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C11" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H11" s="5">
+      <c r="D11" s="14">
         <v>13</v>
       </c>
-      <c r="I11" s="11">
+      <c r="E11" s="12">
         <f t="shared" si="0"/>
         <v>0.43333333333333335</v>
       </c>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-    </row>
-    <row r="12" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="2" t="s">
+      <c r="F11" s="10"/>
+      <c r="G11" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="I11" s="22"/>
+    </row>
+    <row r="12" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C12" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H12" s="5">
+      <c r="D12" s="14">
         <v>12</v>
       </c>
-      <c r="I12" s="11">
+      <c r="E12" s="12">
         <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-    </row>
-    <row r="13" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="2" t="s">
+      <c r="F12" s="10"/>
+      <c r="G12" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="H12" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="I12" s="23"/>
+    </row>
+    <row r="13" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C13" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H13" s="5">
+      <c r="D13" s="14">
         <v>10</v>
       </c>
-      <c r="I13" s="11">
+      <c r="E13" s="12">
         <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-    </row>
-    <row r="14" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="2" t="s">
+      <c r="F13" s="10"/>
+      <c r="G13" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="H13" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="I13" s="23"/>
+    </row>
+    <row r="14" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C14" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H14" s="5">
+      <c r="D14" s="14">
         <v>9</v>
       </c>
-      <c r="I14" s="11">
+      <c r="E14" s="12">
         <f t="shared" si="0"/>
         <v>0.3</v>
       </c>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-    </row>
-    <row r="15" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="2" t="s">
+      <c r="F14" s="10"/>
+      <c r="G14" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="H14" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="I14" s="23"/>
+    </row>
+    <row r="15" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C15" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H15" s="5">
+      <c r="D15" s="14">
         <v>12</v>
       </c>
-      <c r="I15" s="11">
+      <c r="E15" s="12">
         <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-    </row>
-    <row r="16" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="2" t="s">
+      <c r="F15" s="10"/>
+      <c r="G15" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="H15" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" s="23"/>
+    </row>
+    <row r="16" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C16" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H16" s="5">
+      <c r="D16" s="14">
         <v>114</v>
       </c>
-      <c r="I16" s="11">
+      <c r="E16" s="12">
         <f t="shared" si="0"/>
         <v>3.8</v>
       </c>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-    </row>
-    <row r="17" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="2" t="s">
+      <c r="F16" s="10"/>
+      <c r="G16" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="H16" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" s="23"/>
+    </row>
+    <row r="17" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C17" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H17" s="5">
+      <c r="D17" s="14">
         <v>53</v>
       </c>
-      <c r="I17" s="11">
+      <c r="E17" s="12">
         <f t="shared" si="0"/>
         <v>1.7666666666666666</v>
       </c>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-    </row>
-    <row r="18" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="2" t="s">
+      <c r="F17" s="10"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="25">
+        <f>SUM(H6:H16)</f>
+        <v>0</v>
+      </c>
+      <c r="I17" s="23"/>
+    </row>
+    <row r="18" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C18" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H18" s="5">
+      <c r="D18" s="14">
         <v>35</v>
       </c>
-      <c r="I18" s="11">
+      <c r="E18" s="12">
         <f t="shared" si="0"/>
         <v>1.1666666666666667</v>
       </c>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-    </row>
-    <row r="19" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="2" t="s">
+      <c r="F18" s="10"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="23"/>
+    </row>
+    <row r="19" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C19" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H19" s="5">
+      <c r="D19" s="14">
         <v>35</v>
       </c>
-      <c r="I19" s="11">
+      <c r="E19" s="12">
         <f t="shared" si="0"/>
         <v>1.1666666666666667</v>
       </c>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-    </row>
-    <row r="20" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="2" t="s">
+      <c r="F19" s="10"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="23"/>
+    </row>
+    <row r="20" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C20" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H20" s="5">
+      <c r="D20" s="14">
         <v>57</v>
       </c>
-      <c r="I20" s="11">
+      <c r="E20" s="12">
         <f t="shared" si="0"/>
         <v>1.9</v>
       </c>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-    </row>
-    <row r="21" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="2" t="s">
+      <c r="F20" s="10"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="23"/>
+    </row>
+    <row r="21" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C21" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H21" s="5">
+      <c r="D21" s="14">
         <v>63</v>
       </c>
-      <c r="I21" s="11">
+      <c r="E21" s="12">
         <f t="shared" si="0"/>
         <v>2.1</v>
       </c>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-    </row>
-    <row r="22" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="2" t="s">
+      <c r="F21" s="10"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="23"/>
+    </row>
+    <row r="22" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C22" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H22" s="5">
+      <c r="D22" s="14">
         <v>15</v>
       </c>
-      <c r="I22" s="11">
+      <c r="E22" s="12">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-    </row>
-    <row r="23" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="2" t="s">
+      <c r="F22" s="10"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="23"/>
+    </row>
+    <row r="23" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C23" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H23" s="5">
+      <c r="D23" s="14">
         <v>21</v>
       </c>
-      <c r="I23" s="11">
+      <c r="E23" s="12">
         <f t="shared" si="0"/>
         <v>0.7</v>
       </c>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-    </row>
-    <row r="24" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="2" t="s">
+      <c r="F23" s="10"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="23"/>
+    </row>
+    <row r="24" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C24" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H24" s="5">
+      <c r="D24" s="14">
         <v>13</v>
       </c>
-      <c r="I24" s="11">
+      <c r="E24" s="12">
         <f t="shared" si="0"/>
         <v>0.43333333333333335</v>
       </c>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-    </row>
-    <row r="25" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="2" t="s">
+      <c r="F24" s="10"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="23"/>
+    </row>
+    <row r="25" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C25" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="H25" s="5">
+      <c r="D25" s="14">
         <v>6</v>
       </c>
-      <c r="I25" s="11">
+      <c r="E25" s="15">
         <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-    </row>
-    <row r="26" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="3" t="s">
+      <c r="F25" s="10"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="23"/>
+    </row>
+    <row r="26" spans="3:9" ht="21" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C26" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="H26" s="6">
+      <c r="D26" s="17">
         <v>18</v>
       </c>
-      <c r="I26" s="11">
+      <c r="E26" s="18">
         <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-    </row>
-    <row r="27" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-    </row>
-    <row r="28" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-    </row>
-    <row r="29" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-    </row>
-    <row r="30" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-    </row>
-    <row r="31" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="C5:D5"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="G6" r:id="rId1" display="https://www.w3resource.com/javascript-exercises/javascript-basic-exercises.php" xr:uid="{B69BD060-D642-4C69-A70A-41C03018CEA4}"/>
-    <hyperlink ref="G7" r:id="rId2" display="https://www.w3resource.com/javascript-exercises/fundamental/index.php" xr:uid="{A7EA3B7D-555D-4B8C-95E6-AA48425F7DE1}"/>
-    <hyperlink ref="G8" r:id="rId3" display="https://www.w3resource.com/javascript-exercises/fundamental/index1.php" xr:uid="{427DC490-6B2F-4CD0-A263-B02A2555A19E}"/>
-    <hyperlink ref="G9" r:id="rId4" display="https://www.w3resource.com/javascript-exercises/error-handling/index.php" xr:uid="{538FCC94-BF6D-4D17-9B06-E34FC4DA59DD}"/>
-    <hyperlink ref="G10" r:id="rId5" display="https://www.w3resource.com/javascript-exercises/javascript-functions-exercises.php" xr:uid="{665B0F41-B715-4D3D-8426-537139567BA7}"/>
-    <hyperlink ref="G11" r:id="rId6" display="https://www.w3resource.com/javascript-exercises/javascript-recursion-functions-exercises.php" xr:uid="{F61DE576-7AC0-4E54-BDA0-AE99C9F58F97}"/>
-    <hyperlink ref="G12" r:id="rId7" display="https://www.w3resource.com/javascript-exercises/javascript-conditional-statements-and-loops-exercises.php" xr:uid="{D5303CE4-07FD-4338-8213-41A6115A8212}"/>
-    <hyperlink ref="G13" r:id="rId8" display="https://www.w3resource.com/javascript-exercises/event/index.php" xr:uid="{01BE7A07-1F41-4A0F-81C5-A453027F0654}"/>
-    <hyperlink ref="G14" r:id="rId9" display="https://www.w3resource.com/javascript-exercises/asynchronous/index.php" xr:uid="{57FD65B0-014F-4BFC-BFAE-ED90A05D98BF}"/>
-    <hyperlink ref="G15" r:id="rId10" display="https://www.w3resource.com/javascript-exercises/oop/index.php" xr:uid="{2F657924-26E0-4CB6-A74E-FF2B2C6ECCFA}"/>
-    <hyperlink ref="G16" r:id="rId11" display="https://www.w3resource.com/javascript-exercises/javascript-math-exercises.php" xr:uid="{C09B919B-D09F-4E14-A5E9-CFCAE02CACBB}"/>
-    <hyperlink ref="G17" r:id="rId12" display="https://www.w3resource.com/javascript-exercises/javascript-array-exercises.php" xr:uid="{7D0DAEA9-26A9-443F-8B73-B0FC67DFB010}"/>
-    <hyperlink ref="G18" r:id="rId13" display="https://www.w3resource.com/javascript-exercises/stack/index.php" xr:uid="{6E63C839-D000-43D5-ACA6-B6F81B4F19BE}"/>
-    <hyperlink ref="G19" r:id="rId14" display="https://www.w3resource.com/javascript-exercises/linkedlist/index.php" xr:uid="{2F8DCEFA-3096-4A86-9D9A-2E5BA91ADE96}"/>
-    <hyperlink ref="G20" r:id="rId15" display="https://www.w3resource.com/javascript-exercises/javascript-date-exercises.php" xr:uid="{0803E487-A5F8-477A-8D5A-51ADAA8135E2}"/>
-    <hyperlink ref="G21" r:id="rId16" display="https://www.w3resource.com/javascript-exercises/javascript-string-exercises.php" xr:uid="{167C04E7-6FAF-48B5-8EFC-F40A7F1141CA}"/>
-    <hyperlink ref="G22" r:id="rId17" display="https://www.w3resource.com/javascript-exercises/bit-manipulation/index.php" xr:uid="{FD8373D1-A3A5-4624-A23B-E70F83FCB0AC}"/>
-    <hyperlink ref="G23" r:id="rId18" display="https://www.w3resource.com/javascript-exercises/javascript-regexp-exercises.php" xr:uid="{F8C3F1B3-8165-469E-B163-F5A449926703}"/>
-    <hyperlink ref="G24" r:id="rId19" display="https://www.w3resource.com/javascript-exercises/javascript-dom-exercises.php" xr:uid="{F773E5D1-5496-4AF2-B9FA-CCF8714A32DD}"/>
-    <hyperlink ref="G25" r:id="rId20" display="https://www.w3resource.com/javascript-exercises/javascript-drawing-exercises.php" xr:uid="{53D664FC-C1F7-4B47-9570-2F26DF816154}"/>
-    <hyperlink ref="G26" r:id="rId21" display="https://www.w3resource.com/javascript-exercises/javascript-object-exercises.php" xr:uid="{EB44067D-AE3F-480C-A6FB-7A5D9ABCC18D}"/>
+    <hyperlink ref="C6" r:id="rId1" display="https://www.w3resource.com/javascript-exercises/javascript-basic-exercises.php" xr:uid="{B69BD060-D642-4C69-A70A-41C03018CEA4}"/>
+    <hyperlink ref="C7" r:id="rId2" display="https://www.w3resource.com/javascript-exercises/fundamental/index.php" xr:uid="{A7EA3B7D-555D-4B8C-95E6-AA48425F7DE1}"/>
+    <hyperlink ref="C8" r:id="rId3" display="https://www.w3resource.com/javascript-exercises/fundamental/index1.php" xr:uid="{427DC490-6B2F-4CD0-A263-B02A2555A19E}"/>
+    <hyperlink ref="C9" r:id="rId4" display="https://www.w3resource.com/javascript-exercises/error-handling/index.php" xr:uid="{538FCC94-BF6D-4D17-9B06-E34FC4DA59DD}"/>
+    <hyperlink ref="C10" r:id="rId5" display="https://www.w3resource.com/javascript-exercises/javascript-functions-exercises.php" xr:uid="{665B0F41-B715-4D3D-8426-537139567BA7}"/>
+    <hyperlink ref="C11" r:id="rId6" display="https://www.w3resource.com/javascript-exercises/javascript-recursion-functions-exercises.php" xr:uid="{F61DE576-7AC0-4E54-BDA0-AE99C9F58F97}"/>
+    <hyperlink ref="C12" r:id="rId7" display="https://www.w3resource.com/javascript-exercises/javascript-conditional-statements-and-loops-exercises.php" xr:uid="{D5303CE4-07FD-4338-8213-41A6115A8212}"/>
+    <hyperlink ref="C13" r:id="rId8" display="https://www.w3resource.com/javascript-exercises/event/index.php" xr:uid="{01BE7A07-1F41-4A0F-81C5-A453027F0654}"/>
+    <hyperlink ref="C14" r:id="rId9" display="https://www.w3resource.com/javascript-exercises/asynchronous/index.php" xr:uid="{57FD65B0-014F-4BFC-BFAE-ED90A05D98BF}"/>
+    <hyperlink ref="C15" r:id="rId10" display="https://www.w3resource.com/javascript-exercises/oop/index.php" xr:uid="{2F657924-26E0-4CB6-A74E-FF2B2C6ECCFA}"/>
+    <hyperlink ref="C16" r:id="rId11" display="https://www.w3resource.com/javascript-exercises/javascript-math-exercises.php" xr:uid="{C09B919B-D09F-4E14-A5E9-CFCAE02CACBB}"/>
+    <hyperlink ref="C17" r:id="rId12" display="https://www.w3resource.com/javascript-exercises/javascript-array-exercises.php" xr:uid="{7D0DAEA9-26A9-443F-8B73-B0FC67DFB010}"/>
+    <hyperlink ref="C18" r:id="rId13" display="https://www.w3resource.com/javascript-exercises/stack/index.php" xr:uid="{6E63C839-D000-43D5-ACA6-B6F81B4F19BE}"/>
+    <hyperlink ref="C19" r:id="rId14" display="https://www.w3resource.com/javascript-exercises/linkedlist/index.php" xr:uid="{2F8DCEFA-3096-4A86-9D9A-2E5BA91ADE96}"/>
+    <hyperlink ref="C20" r:id="rId15" display="https://www.w3resource.com/javascript-exercises/javascript-date-exercises.php" xr:uid="{0803E487-A5F8-477A-8D5A-51ADAA8135E2}"/>
+    <hyperlink ref="C21" r:id="rId16" display="https://www.w3resource.com/javascript-exercises/javascript-string-exercises.php" xr:uid="{167C04E7-6FAF-48B5-8EFC-F40A7F1141CA}"/>
+    <hyperlink ref="C22" r:id="rId17" display="https://www.w3resource.com/javascript-exercises/bit-manipulation/index.php" xr:uid="{FD8373D1-A3A5-4624-A23B-E70F83FCB0AC}"/>
+    <hyperlink ref="C23" r:id="rId18" display="https://www.w3resource.com/javascript-exercises/javascript-regexp-exercises.php" xr:uid="{F8C3F1B3-8165-469E-B163-F5A449926703}"/>
+    <hyperlink ref="C24" r:id="rId19" display="https://www.w3resource.com/javascript-exercises/javascript-dom-exercises.php" xr:uid="{F773E5D1-5496-4AF2-B9FA-CCF8714A32DD}"/>
+    <hyperlink ref="C25" r:id="rId20" display="https://www.w3resource.com/javascript-exercises/javascript-drawing-exercises.php" xr:uid="{53D664FC-C1F7-4B47-9570-2F26DF816154}"/>
+    <hyperlink ref="C26" r:id="rId21" display="https://www.w3resource.com/javascript-exercises/javascript-object-exercises.php" xr:uid="{EB44067D-AE3F-480C-A6FB-7A5D9ABCC18D}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70CECF59-C65A-4E6D-BFB9-09FFE1A5DC77}">
+  <dimension ref="D3:G25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="26.25" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="3" width="9" style="31"/>
+    <col min="4" max="4" width="29.25" style="31" customWidth="1"/>
+    <col min="5" max="5" width="74.875" style="31" customWidth="1"/>
+    <col min="6" max="6" width="34" style="31" customWidth="1"/>
+    <col min="7" max="7" width="21.625" style="31" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="31"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="4:7" x14ac:dyDescent="0.4">
+      <c r="D3" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" s="30" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="4:7" x14ac:dyDescent="0.4">
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+    </row>
+    <row r="5" spans="4:7" x14ac:dyDescent="0.4">
+      <c r="D5" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="G5" s="32" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="4:7" x14ac:dyDescent="0.4">
+      <c r="D6" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="4:7" x14ac:dyDescent="0.4">
+      <c r="D7" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="4:7" x14ac:dyDescent="0.4">
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+    </row>
+    <row r="9" spans="4:7" x14ac:dyDescent="0.4">
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+    </row>
+    <row r="10" spans="4:7" x14ac:dyDescent="0.4">
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+    </row>
+    <row r="11" spans="4:7" x14ac:dyDescent="0.4">
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+    </row>
+    <row r="12" spans="4:7" x14ac:dyDescent="0.4">
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+    </row>
+    <row r="13" spans="4:7" x14ac:dyDescent="0.4">
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+    </row>
+    <row r="14" spans="4:7" x14ac:dyDescent="0.4">
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+    </row>
+    <row r="15" spans="4:7" x14ac:dyDescent="0.4">
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+    </row>
+    <row r="16" spans="4:7" x14ac:dyDescent="0.4">
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+    </row>
+    <row r="17" spans="4:7" x14ac:dyDescent="0.4">
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+    </row>
+    <row r="18" spans="4:7" x14ac:dyDescent="0.4">
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
+    </row>
+    <row r="19" spans="4:7" x14ac:dyDescent="0.4">
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
+    </row>
+    <row r="20" spans="4:7" x14ac:dyDescent="0.4">
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
+    </row>
+    <row r="21" spans="4:7" x14ac:dyDescent="0.4">
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="32"/>
+    </row>
+    <row r="22" spans="4:7" x14ac:dyDescent="0.4">
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
+    </row>
+    <row r="23" spans="4:7" x14ac:dyDescent="0.4">
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
+    </row>
+    <row r="24" spans="4:7" x14ac:dyDescent="0.4">
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
+    </row>
+    <row r="25" spans="4:7" x14ac:dyDescent="0.4">
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E5" r:id="rId1" xr:uid="{8B1200F8-F038-4CAF-B457-48A53FDACA06}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
